--- a/salida analógica/memoryMapsNO.xlsx
+++ b/salida analógica/memoryMapsNO.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,14 +81,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -106,7 +102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10582275" cy="2114550"/>
+          <a:ext cx="4819650" cy="2923768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -119,18 +115,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338912</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>7431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -143,8 +139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2343150"/>
-          <a:ext cx="4187012" cy="2781300"/>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="7686675" cy="1912431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,7 +353,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
